--- a/init_scripts/INIT_TABLE_DATA/t_data_tab.xlsx
+++ b/init_scripts/INIT_TABLE_DATA/t_data_tab.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC89CE50-1639-4D85-A61D-382CE53358CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CF6E30-1D80-4F5E-8489-DB455CA4582D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>app_subway_spread_baby_day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推广计划列表-宝贝-日报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,6 +48,34 @@
   <si>
     <t>店铺,日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌专区报表-点击-15天转化-日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_subway_report_spreadbaby_day</t>
+  </si>
+  <si>
+    <t>app_branding_proparea_reportclick_account_day</t>
+  </si>
+  <si>
+    <t>app_branding_proparea_reportclick_spreadplan_day</t>
+  </si>
+  <si>
+    <t>app_branding_proparea_reportclick_spreadunit_day</t>
+  </si>
+  <si>
+    <t>app_branding_proparea_reportclick_newidea_day</t>
+  </si>
+  <si>
+    <t>app_branding_proparea_reportclick_flowpacket_day</t>
+  </si>
+  <si>
+    <t>app_branding_proparea_reportclick_directcrowd_day</t>
+  </si>
+  <si>
+    <t>app_branding_proparea_reportclick_newideablock_day</t>
   </si>
 </sst>
 </file>
@@ -383,16 +407,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" customWidth="1"/>
+    <col min="2" max="2" width="46.83203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="19.58203125" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
@@ -400,7 +424,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -417,15 +441,113 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
         <v>1</v>
       </c>
     </row>
